--- a/data/pca/factorExposure/factorExposure_2017-10-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02386958651056007</v>
+        <v>0.01319719619459277</v>
       </c>
       <c r="C2">
-        <v>0.00287019091370089</v>
+        <v>-0.03875341713341387</v>
       </c>
       <c r="D2">
-        <v>-0.01678661079463853</v>
+        <v>-0.02866413941069828</v>
       </c>
       <c r="E2">
-        <v>0.01438352077866341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03213193049560285</v>
+      </c>
+      <c r="F2">
+        <v>0.01823392331895532</v>
+      </c>
+      <c r="G2">
+        <v>0.02211088891569834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01198755086243622</v>
+        <v>0.05245709037012711</v>
       </c>
       <c r="C3">
-        <v>0.04800598576279767</v>
+        <v>-0.07424230547239702</v>
       </c>
       <c r="D3">
-        <v>-0.01501380433327723</v>
+        <v>-0.01445670636133936</v>
       </c>
       <c r="E3">
-        <v>0.01135173509938162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.0894866757604629</v>
+      </c>
+      <c r="F3">
+        <v>0.0605954312489737</v>
+      </c>
+      <c r="G3">
+        <v>0.07383480510288745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02157609975421527</v>
+        <v>0.05650080343487599</v>
       </c>
       <c r="C4">
-        <v>0.01580933923611444</v>
+        <v>-0.06217084850279642</v>
       </c>
       <c r="D4">
-        <v>-0.06209656329352257</v>
+        <v>-0.02269623075359848</v>
       </c>
       <c r="E4">
-        <v>-0.01293074662680539</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01374462708514726</v>
+      </c>
+      <c r="F4">
+        <v>0.006653484177918971</v>
+      </c>
+      <c r="G4">
+        <v>0.04735080835128318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01479965443343318</v>
+        <v>0.03295839568086606</v>
       </c>
       <c r="C6">
-        <v>0.02209743875088179</v>
+        <v>-0.05296071386495792</v>
       </c>
       <c r="D6">
-        <v>-0.08238959473255263</v>
+        <v>-0.0159745558147274</v>
       </c>
       <c r="E6">
-        <v>0.001122522699502427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01010179278614205</v>
+      </c>
+      <c r="F6">
+        <v>0.00742462011162682</v>
+      </c>
+      <c r="G6">
+        <v>0.02739533253691523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01031735686343272</v>
+        <v>0.02027416242175879</v>
       </c>
       <c r="C7">
-        <v>0.005961602598449103</v>
+        <v>-0.03633142075298992</v>
       </c>
       <c r="D7">
-        <v>-0.0397486520215226</v>
+        <v>-0.01266637522117832</v>
       </c>
       <c r="E7">
-        <v>-0.06788818740161351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01080894918366169</v>
+      </c>
+      <c r="F7">
+        <v>0.002984225343300355</v>
+      </c>
+      <c r="G7">
+        <v>0.07825392971932847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-1.882994654093978e-05</v>
+        <v>0.0001394058395648332</v>
       </c>
       <c r="C8">
-        <v>-0.007452362139088006</v>
+        <v>-0.01425804441011919</v>
       </c>
       <c r="D8">
-        <v>-0.01744840033810517</v>
+        <v>-0.00341980463319557</v>
       </c>
       <c r="E8">
-        <v>-0.004839571938716504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01185011885102103</v>
+      </c>
+      <c r="F8">
+        <v>0.01907503294624443</v>
+      </c>
+      <c r="G8">
+        <v>0.02165825604847098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01431066912330684</v>
+        <v>0.0290320684168301</v>
       </c>
       <c r="C9">
-        <v>0.01722660420233614</v>
+        <v>-0.04337787114042069</v>
       </c>
       <c r="D9">
-        <v>-0.04547246444169457</v>
+        <v>-0.01592628883151423</v>
       </c>
       <c r="E9">
-        <v>-0.002731702590247076</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01521829993412595</v>
+      </c>
+      <c r="F9">
+        <v>0.01284756413677399</v>
+      </c>
+      <c r="G9">
+        <v>0.03828053016442234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.00896546055044117</v>
+        <v>0.08961255043490855</v>
       </c>
       <c r="C10">
-        <v>0.1452599192518911</v>
+        <v>0.1859242452352021</v>
       </c>
       <c r="D10">
-        <v>0.1333265891976697</v>
+        <v>0.01899821522579876</v>
       </c>
       <c r="E10">
-        <v>-0.01844185753781817</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01648110850843336</v>
+      </c>
+      <c r="F10">
+        <v>-0.01469166741293639</v>
+      </c>
+      <c r="G10">
+        <v>0.0391582811911479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-9.139493846330772e-05</v>
+        <v>0.03455141451660456</v>
       </c>
       <c r="C11">
-        <v>0.00632494462413485</v>
+        <v>-0.05342737899048904</v>
       </c>
       <c r="D11">
-        <v>-0.04504872575966232</v>
+        <v>-0.001924060565685796</v>
       </c>
       <c r="E11">
-        <v>0.01278548601689837</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.003151681672235119</v>
+      </c>
+      <c r="F11">
+        <v>0.01954786460901112</v>
+      </c>
+      <c r="G11">
+        <v>0.02154059647490952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005302410735121599</v>
+        <v>0.03241321400372768</v>
       </c>
       <c r="C12">
-        <v>0.01452648722056459</v>
+        <v>-0.04465969621295809</v>
       </c>
       <c r="D12">
-        <v>-0.04759614517082988</v>
+        <v>-0.00581089466650557</v>
       </c>
       <c r="E12">
-        <v>0.004218041953720636</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.003534977833957679</v>
+      </c>
+      <c r="F12">
+        <v>0.004478598212446718</v>
+      </c>
+      <c r="G12">
+        <v>0.02516400959772764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02128696017848763</v>
+        <v>0.01416357003934246</v>
       </c>
       <c r="C13">
-        <v>0.01487908072499448</v>
+        <v>-0.03219252926584916</v>
       </c>
       <c r="D13">
-        <v>-0.0108594662448098</v>
+        <v>-0.02479169146696583</v>
       </c>
       <c r="E13">
-        <v>0.008753158131235637</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02542383539514002</v>
+      </c>
+      <c r="F13">
+        <v>0.01189349660691647</v>
+      </c>
+      <c r="G13">
+        <v>0.03155970895802607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006847603613409705</v>
+        <v>0.009550862002510341</v>
       </c>
       <c r="C14">
-        <v>0.01155248573422644</v>
+        <v>-0.02672377302374964</v>
       </c>
       <c r="D14">
-        <v>-0.01791673382159526</v>
+        <v>-0.008478572363672695</v>
       </c>
       <c r="E14">
-        <v>-0.009376039081539916</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.0043382674687216</v>
+      </c>
+      <c r="F14">
+        <v>-0.00188510303157506</v>
+      </c>
+      <c r="G14">
+        <v>0.03864339490153582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0005171809520241621</v>
+        <v>0.03201709196454409</v>
       </c>
       <c r="C16">
-        <v>0.01158901567456316</v>
+        <v>-0.0433276055642841</v>
       </c>
       <c r="D16">
-        <v>-0.05179385977562389</v>
+        <v>-0.001382876453167061</v>
       </c>
       <c r="E16">
-        <v>0.007391474528480099</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.005447326337744623</v>
+      </c>
+      <c r="F16">
+        <v>0.009260479172107854</v>
+      </c>
+      <c r="G16">
+        <v>0.02332964982422038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01281482675645712</v>
+        <v>0.02843339476545395</v>
       </c>
       <c r="C19">
-        <v>0.02664540180026463</v>
+        <v>-0.0495319048855323</v>
       </c>
       <c r="D19">
-        <v>-0.02719512463512914</v>
+        <v>-0.01579058324242882</v>
       </c>
       <c r="E19">
-        <v>-0.003433975674810083</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05108270055185553</v>
+      </c>
+      <c r="F19">
+        <v>0.02973110743993156</v>
+      </c>
+      <c r="G19">
+        <v>0.04653169200392144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01032808045686249</v>
+        <v>0.01279690030812983</v>
       </c>
       <c r="C20">
-        <v>0.00558234584444175</v>
+        <v>-0.0345885166122844</v>
       </c>
       <c r="D20">
-        <v>-0.01468403811880336</v>
+        <v>-0.01312068325923882</v>
       </c>
       <c r="E20">
-        <v>0.002596920877716863</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02499489310114683</v>
+      </c>
+      <c r="F20">
+        <v>-0.002672532937898984</v>
+      </c>
+      <c r="G20">
+        <v>0.03699807590580851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01360298005311687</v>
+        <v>0.01673349126237123</v>
       </c>
       <c r="C21">
-        <v>0.03603310145479858</v>
+        <v>-0.03466344003342162</v>
       </c>
       <c r="D21">
-        <v>-0.01622743776768426</v>
+        <v>-0.01613110117376561</v>
       </c>
       <c r="E21">
-        <v>-0.01864044388684164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03204627195915188</v>
+      </c>
+      <c r="F21">
+        <v>0.009708850600662993</v>
+      </c>
+      <c r="G21">
+        <v>0.05909073068637896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004716843166320539</v>
+        <v>0.02657888845126482</v>
       </c>
       <c r="C24">
-        <v>0.007286723828762055</v>
+        <v>-0.04607509544509738</v>
       </c>
       <c r="D24">
-        <v>-0.04567655982376829</v>
+        <v>-0.006647590568520195</v>
       </c>
       <c r="E24">
-        <v>0.007520280851713514</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.001703616140180853</v>
+      </c>
+      <c r="F24">
+        <v>0.01547403063076384</v>
+      </c>
+      <c r="G24">
+        <v>0.02487461320776139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01086049251718491</v>
+        <v>0.04338730230288732</v>
       </c>
       <c r="C25">
-        <v>0.02379111255185922</v>
+        <v>-0.05317118192829461</v>
       </c>
       <c r="D25">
-        <v>-0.0442532013271632</v>
+        <v>-0.01055016519372964</v>
       </c>
       <c r="E25">
-        <v>0.006682717651812601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.006198257259078258</v>
+      </c>
+      <c r="F25">
+        <v>0.0100799619990716</v>
+      </c>
+      <c r="G25">
+        <v>0.03078848627361728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02255760853547221</v>
+        <v>0.009866897537352865</v>
       </c>
       <c r="C26">
-        <v>0.006925904085797705</v>
+        <v>-0.009448075448835247</v>
       </c>
       <c r="D26">
-        <v>0.003620171663171568</v>
+        <v>-0.02358039978070901</v>
       </c>
       <c r="E26">
-        <v>-0.007361899696399757</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.01036442672177317</v>
+      </c>
+      <c r="F26">
+        <v>3.571847624159058e-05</v>
+      </c>
+      <c r="G26">
+        <v>0.02812826256859616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.02643267859924807</v>
+        <v>0.1145940528552353</v>
       </c>
       <c r="C28">
-        <v>0.2168514266406667</v>
+        <v>0.2275067085093339</v>
       </c>
       <c r="D28">
-        <v>0.1894266079065869</v>
+        <v>0.01002472151265263</v>
       </c>
       <c r="E28">
-        <v>-0.02947083758481016</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.003818591656200348</v>
+      </c>
+      <c r="F28">
+        <v>-0.01492046073504649</v>
+      </c>
+      <c r="G28">
+        <v>0.05863638693072169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.00716742613828979</v>
+        <v>0.01452769706821512</v>
       </c>
       <c r="C29">
-        <v>0.01768034640763241</v>
+        <v>-0.02055213304555996</v>
       </c>
       <c r="D29">
-        <v>-0.01489834028563756</v>
+        <v>-0.007133317090892324</v>
       </c>
       <c r="E29">
-        <v>-0.004867604390459912</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.004483746009084228</v>
+      </c>
+      <c r="F29">
+        <v>-0.01258357197095721</v>
+      </c>
+      <c r="G29">
+        <v>0.02864534286729714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02381060703071644</v>
+        <v>0.04602515124938903</v>
       </c>
       <c r="C30">
-        <v>0.008341841624808343</v>
+        <v>-0.06889397789533165</v>
       </c>
       <c r="D30">
-        <v>-0.06591866329569022</v>
+        <v>-0.02716871707011366</v>
       </c>
       <c r="E30">
-        <v>0.06381427711695287</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03917033010538013</v>
+      </c>
+      <c r="F30">
+        <v>0.04363497547938222</v>
+      </c>
+      <c r="G30">
+        <v>0.005367160951639404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.006741027394999293</v>
+        <v>0.04550786272912125</v>
       </c>
       <c r="C31">
-        <v>0.04657242800699631</v>
+        <v>-0.03133482524174191</v>
       </c>
       <c r="D31">
-        <v>-0.04161268442514311</v>
+        <v>-0.003367438970729941</v>
       </c>
       <c r="E31">
-        <v>-0.001588389474686109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008072842115575388</v>
+      </c>
+      <c r="F31">
+        <v>-0.03664250388615264</v>
+      </c>
+      <c r="G31">
+        <v>0.02637848366238786</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.007507128615435017</v>
+        <v>0.003393815867763457</v>
       </c>
       <c r="C32">
-        <v>0.01137840808497388</v>
+        <v>-0.03626855073131177</v>
       </c>
       <c r="D32">
-        <v>-0.008189736553265421</v>
+        <v>0.004028092433380841</v>
       </c>
       <c r="E32">
-        <v>-0.02635539207317754</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.0137653618649547</v>
+      </c>
+      <c r="F32">
+        <v>0.05302655149944932</v>
+      </c>
+      <c r="G32">
+        <v>0.05614444647124024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01193687048018493</v>
+        <v>0.02730820825184575</v>
       </c>
       <c r="C33">
-        <v>0.02316195229479709</v>
+        <v>-0.04928603525349599</v>
       </c>
       <c r="D33">
-        <v>-0.02371059515196369</v>
+        <v>-0.01436051734975246</v>
       </c>
       <c r="E33">
-        <v>0.02629484080848453</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.0241729833191392</v>
+      </c>
+      <c r="F33">
+        <v>0.02540200741724414</v>
+      </c>
+      <c r="G33">
+        <v>0.03273429576550244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.004987599247199092</v>
+        <v>0.04393862764930384</v>
       </c>
       <c r="C34">
-        <v>0.02058163947945924</v>
+        <v>-0.05451960995736018</v>
       </c>
       <c r="D34">
-        <v>-0.05040196315443819</v>
+        <v>0.005302529781699692</v>
       </c>
       <c r="E34">
-        <v>-0.0006128172045502622</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.007804878340607117</v>
+      </c>
+      <c r="F34">
+        <v>0.02025036941669986</v>
+      </c>
+      <c r="G34">
+        <v>0.0368064493595224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01153592862102092</v>
+        <v>0.01155333686149856</v>
       </c>
       <c r="C36">
-        <v>0.01701461723203143</v>
+        <v>-0.007134199574937727</v>
       </c>
       <c r="D36">
-        <v>-0.002319331725118367</v>
+        <v>-0.01133352457499303</v>
       </c>
       <c r="E36">
-        <v>-0.001743201276630162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.004589520835283347</v>
+      </c>
+      <c r="F36">
+        <v>-0.004070483187920067</v>
+      </c>
+      <c r="G36">
+        <v>0.02367159055999386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.006430414103887784</v>
+        <v>0.03212385621389449</v>
       </c>
       <c r="C38">
-        <v>0.02724622007547688</v>
+        <v>-0.02555395579294915</v>
       </c>
       <c r="D38">
-        <v>-0.02421917315314339</v>
+        <v>0.007845830546483452</v>
       </c>
       <c r="E38">
-        <v>8.360662614683216e-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003836117092899902</v>
+      </c>
+      <c r="F38">
+        <v>-0.004194329464463928</v>
+      </c>
+      <c r="G38">
+        <v>0.03247234417069827</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005738100272575514</v>
+        <v>0.03350424199895914</v>
       </c>
       <c r="C39">
-        <v>-0.01669057130256439</v>
+        <v>-0.08076247074461454</v>
       </c>
       <c r="D39">
-        <v>-0.09728546800674757</v>
+        <v>-0.01205358784111891</v>
       </c>
       <c r="E39">
-        <v>0.01534382733127995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02458889238318665</v>
+      </c>
+      <c r="F39">
+        <v>0.0366898468086942</v>
+      </c>
+      <c r="G39">
+        <v>0.02735110979995399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01052218543042243</v>
+        <v>0.02241707033776272</v>
       </c>
       <c r="C40">
-        <v>0.01785203490422002</v>
+        <v>-0.03070337139367547</v>
       </c>
       <c r="D40">
-        <v>-0.03971635390063683</v>
+        <v>-0.01282705690862273</v>
       </c>
       <c r="E40">
-        <v>0.01153733005276102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01918858330012832</v>
+      </c>
+      <c r="F40">
+        <v>0.01777763339292087</v>
+      </c>
+      <c r="G40">
+        <v>0.02336174222097863</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.00498930671499928</v>
+        <v>0.01282918223153198</v>
       </c>
       <c r="C41">
-        <v>0.02047135488324894</v>
+        <v>0.001440844333455239</v>
       </c>
       <c r="D41">
-        <v>0.007032384360024659</v>
+        <v>-0.003435242398873532</v>
       </c>
       <c r="E41">
-        <v>-0.002594449948378724</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0006342498665332201</v>
+      </c>
+      <c r="F41">
+        <v>-0.002345615976686827</v>
+      </c>
+      <c r="G41">
+        <v>0.01572684723191694</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09199583390534011</v>
+        <v>0.02092378436078866</v>
       </c>
       <c r="C42">
-        <v>0.01828918885110027</v>
+        <v>-0.04659421798378501</v>
       </c>
       <c r="D42">
-        <v>-0.2279205882840985</v>
+        <v>-0.0971150958230132</v>
       </c>
       <c r="E42">
-        <v>0.2868635036067238</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04295707808571557</v>
+      </c>
+      <c r="F42">
+        <v>-0.0475575788391346</v>
+      </c>
+      <c r="G42">
+        <v>-0.1801883707053315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.005827803827022834</v>
+        <v>0.02867308873594508</v>
       </c>
       <c r="C43">
-        <v>0.02095843995529294</v>
+        <v>-0.008035748265301698</v>
       </c>
       <c r="D43">
-        <v>0.01247237287367741</v>
+        <v>-0.00376211196366383</v>
       </c>
       <c r="E43">
-        <v>0.001028510833024478</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.006540436244506612</v>
+      </c>
+      <c r="F43">
+        <v>-0.003589309887014086</v>
+      </c>
+      <c r="G43">
+        <v>0.02159944531470038</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002691682351309819</v>
+        <v>0.01750344914961256</v>
       </c>
       <c r="C44">
-        <v>-0.003291216948731509</v>
+        <v>-0.04800789626651552</v>
       </c>
       <c r="D44">
-        <v>-0.03000318066814115</v>
+        <v>-0.006321203649552828</v>
       </c>
       <c r="E44">
-        <v>-0.002304480493897642</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01729124737060858</v>
+      </c>
+      <c r="F44">
+        <v>0.01107480723670794</v>
+      </c>
+      <c r="G44">
+        <v>0.03861228812064196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01048706979280369</v>
+        <v>0.006486459302234013</v>
       </c>
       <c r="C46">
-        <v>0.01699892011304841</v>
+        <v>-0.01745996231988586</v>
       </c>
       <c r="D46">
-        <v>-0.01842962115495752</v>
+        <v>-0.0115963784760351</v>
       </c>
       <c r="E46">
-        <v>0.004146275085636304</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0008510799123154217</v>
+      </c>
+      <c r="F46">
+        <v>-0.01514018937155186</v>
+      </c>
+      <c r="G46">
+        <v>0.0255184280245592</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0004757102445150172</v>
+        <v>0.07428128982305161</v>
       </c>
       <c r="C47">
-        <v>0.06106500549209801</v>
+        <v>-0.06410513952404592</v>
       </c>
       <c r="D47">
-        <v>-0.04857902645968205</v>
+        <v>0.004985963769923438</v>
       </c>
       <c r="E47">
-        <v>0.007954281569031761</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01446197828163763</v>
+      </c>
+      <c r="F47">
+        <v>-0.05573348379198988</v>
+      </c>
+      <c r="G47">
+        <v>0.02435262646695785</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.002300028949784436</v>
+        <v>0.02178448275359358</v>
       </c>
       <c r="C48">
-        <v>0.02688790171874932</v>
+        <v>-0.009089365029440476</v>
       </c>
       <c r="D48">
-        <v>-0.01105015044069048</v>
+        <v>-0.0005839222750941485</v>
       </c>
       <c r="E48">
-        <v>0.0006292768092416581</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.00157922359808753</v>
+      </c>
+      <c r="F48">
+        <v>-0.01588831054397786</v>
+      </c>
+      <c r="G48">
+        <v>0.02850978816269696</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.001890115471907344</v>
+        <v>0.08072557010702268</v>
       </c>
       <c r="C50">
-        <v>0.05141795952079513</v>
+        <v>-0.06559959718704861</v>
       </c>
       <c r="D50">
-        <v>-0.06295833887321353</v>
+        <v>0.003760092588750335</v>
       </c>
       <c r="E50">
-        <v>-0.01727228188107237</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01148671961491263</v>
+      </c>
+      <c r="F50">
+        <v>-0.05732383921228904</v>
+      </c>
+      <c r="G50">
+        <v>0.04733784771437678</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.006820312640115445</v>
+        <v>0.01192546553659678</v>
       </c>
       <c r="C51">
-        <v>0.01975078286881759</v>
+        <v>-0.02772588435354107</v>
       </c>
       <c r="D51">
-        <v>0.01329371224714379</v>
+        <v>-0.008937426705550899</v>
       </c>
       <c r="E51">
-        <v>-0.009811309375124592</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01107706594363715</v>
+      </c>
+      <c r="F51">
+        <v>0.02526440315410042</v>
+      </c>
+      <c r="G51">
+        <v>0.05221463584641493</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.003259536422940302</v>
+        <v>0.09324173423207108</v>
       </c>
       <c r="C53">
-        <v>0.08382293984357829</v>
+        <v>-0.08013904348707215</v>
       </c>
       <c r="D53">
-        <v>-0.1043819720796934</v>
+        <v>0.005272478236823031</v>
       </c>
       <c r="E53">
-        <v>0.005501612262897086</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04018886997493804</v>
+      </c>
+      <c r="F53">
+        <v>-0.06463252737721902</v>
+      </c>
+      <c r="G53">
+        <v>0.02517433796499261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001723260531454387</v>
+        <v>0.02987339373181859</v>
       </c>
       <c r="C54">
-        <v>0.03239638515797374</v>
+        <v>-0.007517677103069499</v>
       </c>
       <c r="D54">
-        <v>0.009804182358823429</v>
+        <v>0.0033491957046565</v>
       </c>
       <c r="E54">
-        <v>-0.01125017873662401</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.006079596461358817</v>
+      </c>
+      <c r="F54">
+        <v>-0.003839504009922235</v>
+      </c>
+      <c r="G54">
+        <v>0.0334553132732386</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.0009963505560459001</v>
+        <v>0.07270316460395958</v>
       </c>
       <c r="C55">
-        <v>0.06002297816431395</v>
+        <v>-0.07340468867576252</v>
       </c>
       <c r="D55">
-        <v>-0.08951414571489757</v>
+        <v>0.004444108977617873</v>
       </c>
       <c r="E55">
-        <v>0.01641186044301963</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02932772669128792</v>
+      </c>
+      <c r="F55">
+        <v>-0.05833845517507659</v>
+      </c>
+      <c r="G55">
+        <v>0.01066200595502276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>3.433701621300883e-05</v>
+        <v>0.1433941813713151</v>
       </c>
       <c r="C56">
-        <v>0.1062307866090239</v>
+        <v>-0.1036878912624469</v>
       </c>
       <c r="D56">
-        <v>-0.1324861898032278</v>
+        <v>0.01355256326709836</v>
       </c>
       <c r="E56">
-        <v>0.01825985597181887</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0432314930048931</v>
+      </c>
+      <c r="F56">
+        <v>-0.09338242759759352</v>
+      </c>
+      <c r="G56">
+        <v>-0.001803507954791658</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02268041194743589</v>
+        <v>0.01157389683773815</v>
       </c>
       <c r="C57">
-        <v>0.01830813684128972</v>
+        <v>-0.01070022001663164</v>
       </c>
       <c r="D57">
-        <v>-0.03778363486655676</v>
+        <v>-0.02359157455154845</v>
       </c>
       <c r="E57">
-        <v>0.01206625377909484</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02831955966492999</v>
+      </c>
+      <c r="F57">
+        <v>0.01586295459167944</v>
+      </c>
+      <c r="G57">
+        <v>0.01990497220688395</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.008906730895059424</v>
+        <v>0.08381925833212626</v>
       </c>
       <c r="C58">
-        <v>0.08786532286565234</v>
+        <v>-0.05481038203944715</v>
       </c>
       <c r="D58">
-        <v>-0.1002851055685659</v>
+        <v>-0.01844161305653424</v>
       </c>
       <c r="E58">
-        <v>0.2150796966663825</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.946300088625</v>
+      </c>
+      <c r="F58">
+        <v>-0.21865256844932</v>
+      </c>
+      <c r="G58">
+        <v>0.006582253626130873</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.0225734280376239</v>
+        <v>0.1515129937435801</v>
       </c>
       <c r="C59">
-        <v>0.2246925864929223</v>
+        <v>0.2121210299067106</v>
       </c>
       <c r="D59">
-        <v>0.1897086482179431</v>
+        <v>0.01659236656133201</v>
       </c>
       <c r="E59">
-        <v>-0.00499652860930777</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01290072382102052</v>
+      </c>
+      <c r="F59">
+        <v>0.006630387159846901</v>
+      </c>
+      <c r="G59">
+        <v>0.0204116258698279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.02815309168336629</v>
+        <v>0.2913158895569289</v>
       </c>
       <c r="C60">
-        <v>0.1588188128105204</v>
+        <v>-0.08696179366561615</v>
       </c>
       <c r="D60">
-        <v>-0.07470716414608435</v>
+        <v>-0.00837261471497997</v>
       </c>
       <c r="E60">
-        <v>0.0475516965369752</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.004019169753258943</v>
+      </c>
+      <c r="F60">
+        <v>0.3726182940239848</v>
+      </c>
+      <c r="G60">
+        <v>-0.07994841031949838</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002653501230893915</v>
+        <v>0.03367350598343581</v>
       </c>
       <c r="C61">
-        <v>0.008520272298552628</v>
+        <v>-0.06385306725527339</v>
       </c>
       <c r="D61">
-        <v>-0.06701721453970284</v>
+        <v>-0.005277456844362077</v>
       </c>
       <c r="E61">
-        <v>0.009562964347164998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01152607500202748</v>
+      </c>
+      <c r="F61">
+        <v>0.0195728035454285</v>
+      </c>
+      <c r="G61">
+        <v>0.02480386990499415</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.00704917589955899</v>
+        <v>0.0127463474545703</v>
       </c>
       <c r="C63">
-        <v>0.007753265064018699</v>
+        <v>-0.02917649975695409</v>
       </c>
       <c r="D63">
-        <v>-0.01087958850530436</v>
+        <v>-0.008222847720850704</v>
       </c>
       <c r="E63">
-        <v>-0.006222238208353124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.005462378719116618</v>
+      </c>
+      <c r="F63">
+        <v>-0.01889360160534043</v>
+      </c>
+      <c r="G63">
+        <v>0.03645299653471892</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.006635461588479214</v>
+        <v>0.05014587302026137</v>
       </c>
       <c r="C64">
-        <v>0.03542993547179814</v>
+        <v>-0.03814481791084253</v>
       </c>
       <c r="D64">
-        <v>-0.06458255293898107</v>
+        <v>-0.004941381729046817</v>
       </c>
       <c r="E64">
-        <v>0.01315461777969391</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.004519023946464257</v>
+      </c>
+      <c r="F64">
+        <v>0.003976612002419545</v>
+      </c>
+      <c r="G64">
+        <v>0.02203632981397753</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01719999855775032</v>
+        <v>0.08481973791039739</v>
       </c>
       <c r="C65">
-        <v>0.02862445454506763</v>
+        <v>-0.0632738241514379</v>
       </c>
       <c r="D65">
-        <v>-0.09269152831128905</v>
+        <v>-0.01471113594022914</v>
       </c>
       <c r="E65">
-        <v>0.004018836321660378</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.009148915936431206</v>
+      </c>
+      <c r="F65">
+        <v>0.02836022706054537</v>
+      </c>
+      <c r="G65">
+        <v>0.01121505511667783</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005290639765133022</v>
+        <v>0.05446881647788073</v>
       </c>
       <c r="C66">
-        <v>-0.005408920248574486</v>
+        <v>-0.1140394733640243</v>
       </c>
       <c r="D66">
-        <v>-0.118454203049797</v>
+        <v>-0.01158070037802792</v>
       </c>
       <c r="E66">
-        <v>0.03225687940468895</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.0260776119570441</v>
+      </c>
+      <c r="F66">
+        <v>0.04502314273629758</v>
+      </c>
+      <c r="G66">
+        <v>0.0184326516566886</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.001543057797669816</v>
+        <v>0.05482444734587318</v>
       </c>
       <c r="C67">
-        <v>0.04553300526179967</v>
+        <v>-0.02976372537017532</v>
       </c>
       <c r="D67">
-        <v>-0.02689927770949286</v>
+        <v>0.006137673543738143</v>
       </c>
       <c r="E67">
-        <v>0.002686644332459979</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.005048404016747899</v>
+      </c>
+      <c r="F67">
+        <v>-0.004469157735513479</v>
+      </c>
+      <c r="G67">
+        <v>0.03057147252696345</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.04036663407012324</v>
+        <v>0.133929103699833</v>
       </c>
       <c r="C68">
-        <v>0.1953030775273265</v>
+        <v>0.2692907958792964</v>
       </c>
       <c r="D68">
-        <v>0.1809802087516338</v>
+        <v>-0.001347221841950605</v>
       </c>
       <c r="E68">
-        <v>-0.001005769793215113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01049430489551886</v>
+      </c>
+      <c r="F68">
+        <v>-0.03826059176232037</v>
+      </c>
+      <c r="G68">
+        <v>0.02082529771271908</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.00364545475392183</v>
+        <v>0.078154974900726</v>
       </c>
       <c r="C69">
-        <v>0.04643168480193823</v>
+        <v>-0.06451439505335146</v>
       </c>
       <c r="D69">
-        <v>-0.05425763181974853</v>
+        <v>0.008992219285799326</v>
       </c>
       <c r="E69">
-        <v>0.002836936706094473</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.03067001608327417</v>
+      </c>
+      <c r="F69">
+        <v>-0.04172236140481295</v>
+      </c>
+      <c r="G69">
+        <v>0.02548884321009445</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.02811727743194064</v>
+        <v>0.1330838798717144</v>
       </c>
       <c r="C71">
-        <v>0.1740383140489864</v>
+        <v>0.2316182337379766</v>
       </c>
       <c r="D71">
-        <v>0.1602100821540823</v>
+        <v>0.007935865647771245</v>
       </c>
       <c r="E71">
-        <v>-0.0131067540840151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02576988838857972</v>
+      </c>
+      <c r="F71">
+        <v>-0.01473460830783579</v>
+      </c>
+      <c r="G71">
+        <v>0.03123332450771934</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.003072953430628815</v>
+        <v>0.08346876816134896</v>
       </c>
       <c r="C72">
-        <v>0.05173643391129566</v>
+        <v>-0.07294933490797052</v>
       </c>
       <c r="D72">
-        <v>-0.1368267999183398</v>
+        <v>0.008803039450704911</v>
       </c>
       <c r="E72">
-        <v>0.03470610482848327</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01249601334838791</v>
+      </c>
+      <c r="F72">
+        <v>0.03889144303267589</v>
+      </c>
+      <c r="G72">
+        <v>0.008053817246778875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.04177301377014467</v>
+        <v>0.3989104454488169</v>
       </c>
       <c r="C73">
-        <v>0.1913300337659527</v>
+        <v>-0.09561303476006218</v>
       </c>
       <c r="D73">
-        <v>-0.1382040155639203</v>
+        <v>-0.01353778151111448</v>
       </c>
       <c r="E73">
-        <v>0.1127010648453914</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.05164724950424746</v>
+      </c>
+      <c r="F73">
+        <v>0.5470591809200729</v>
+      </c>
+      <c r="G73">
+        <v>-0.1257808267518525</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.001418280631028661</v>
+        <v>0.1183540908002029</v>
       </c>
       <c r="C74">
-        <v>0.09909111442759599</v>
+        <v>-0.1167109267493899</v>
       </c>
       <c r="D74">
-        <v>-0.1302944219805526</v>
+        <v>0.01022763347011858</v>
       </c>
       <c r="E74">
-        <v>0.02550363439807657</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.0252629565800321</v>
+      </c>
+      <c r="F74">
+        <v>-0.08242146197901576</v>
+      </c>
+      <c r="G74">
+        <v>0.03037590865065016</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.0002093251392684873</v>
+        <v>0.260087332586851</v>
       </c>
       <c r="C75">
-        <v>0.2315266064199847</v>
+        <v>-0.1509395583343306</v>
       </c>
       <c r="D75">
-        <v>-0.2228101753317148</v>
+        <v>0.03097519989434195</v>
       </c>
       <c r="E75">
-        <v>0.0523638706891174</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.07318927931825436</v>
+      </c>
+      <c r="F75">
+        <v>-0.2034506488292591</v>
+      </c>
+      <c r="G75">
+        <v>-0.04048560024526571</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.005774865826328301</v>
+        <v>0.1364244719295825</v>
       </c>
       <c r="C76">
-        <v>0.1709427472829906</v>
+        <v>-0.1249522619034186</v>
       </c>
       <c r="D76">
-        <v>-0.2107436626081184</v>
+        <v>0.02112810980155475</v>
       </c>
       <c r="E76">
-        <v>0.01754936278800734</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0672896687933737</v>
+      </c>
+      <c r="F76">
+        <v>-0.1347360063058701</v>
+      </c>
+      <c r="G76">
+        <v>0.01184635771322195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01204773404945078</v>
+        <v>0.06382599172762082</v>
       </c>
       <c r="C77">
-        <v>0.01530782274004986</v>
+        <v>-0.06449529427130714</v>
       </c>
       <c r="D77">
-        <v>-0.06451631399418063</v>
+        <v>-0.01275842057239545</v>
       </c>
       <c r="E77">
-        <v>0.01127383021578589</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04728532865806196</v>
+      </c>
+      <c r="F77">
+        <v>0.01537130443691176</v>
+      </c>
+      <c r="G77">
+        <v>0.0488757109086772</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.003958229890539591</v>
+        <v>0.04070964897670779</v>
       </c>
       <c r="C78">
-        <v>0.01608382336765152</v>
+        <v>-0.05008290876769483</v>
       </c>
       <c r="D78">
-        <v>-0.06197988046825161</v>
+        <v>-0.005417057025945202</v>
       </c>
       <c r="E78">
-        <v>0.00670995668883103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02078394105313882</v>
+      </c>
+      <c r="F78">
+        <v>0.04217126722824548</v>
+      </c>
+      <c r="G78">
+        <v>0.03385987479838443</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0135408816694624</v>
+        <v>0.05914545734982688</v>
       </c>
       <c r="C80">
-        <v>0.1566509564127571</v>
+        <v>-0.06564652479134396</v>
       </c>
       <c r="D80">
-        <v>-0.2386792369600458</v>
+        <v>-0.01193938926455108</v>
       </c>
       <c r="E80">
-        <v>-0.8939216152156888</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03932267734151643</v>
+      </c>
+      <c r="F80">
+        <v>0.03822414115015742</v>
+      </c>
+      <c r="G80">
+        <v>0.9137259889463003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.0004276960878541613</v>
+        <v>0.1461382760076229</v>
       </c>
       <c r="C81">
-        <v>0.1449529544844332</v>
+        <v>-0.09320143279762046</v>
       </c>
       <c r="D81">
-        <v>-0.1452252194733109</v>
+        <v>0.0159808688366912</v>
       </c>
       <c r="E81">
-        <v>0.02339545221130705</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04033706032621174</v>
+      </c>
+      <c r="F81">
+        <v>-0.1337690870475013</v>
+      </c>
+      <c r="G81">
+        <v>0.01237518987873837</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05364198544735816</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.03777802191850933</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002800871660601903</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01930524282366344</v>
+      </c>
+      <c r="F82">
+        <v>-0.008662408056495105</v>
+      </c>
+      <c r="G82">
+        <v>-0.006112196370286461</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.006441274525789096</v>
+        <v>0.02818096818856183</v>
       </c>
       <c r="C83">
-        <v>0.03051375818520681</v>
+        <v>-0.0211523056984508</v>
       </c>
       <c r="D83">
-        <v>-0.02420817382892939</v>
+        <v>-0.005278607610217599</v>
       </c>
       <c r="E83">
-        <v>0.00988420289259659</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02432540594576817</v>
+      </c>
+      <c r="F83">
+        <v>0.01805382247699595</v>
+      </c>
+      <c r="G83">
+        <v>0.0228970321837426</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.008327662660206212</v>
+        <v>0.2354691952057177</v>
       </c>
       <c r="C85">
-        <v>0.1812584409487661</v>
+        <v>-0.1489225917759281</v>
       </c>
       <c r="D85">
-        <v>-0.2371184765332079</v>
+        <v>0.01953002515931105</v>
       </c>
       <c r="E85">
-        <v>0.05757379731292375</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1197017643090758</v>
+      </c>
+      <c r="F85">
+        <v>-0.1777685741981666</v>
+      </c>
+      <c r="G85">
+        <v>-0.06159562615167614</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.005801352570929934</v>
+        <v>0.01243988101840707</v>
       </c>
       <c r="C86">
-        <v>0.01778023305672436</v>
+        <v>-0.01612116344587173</v>
       </c>
       <c r="D86">
-        <v>-0.008164999154799088</v>
+        <v>-0.009314209847871943</v>
       </c>
       <c r="E86">
-        <v>0.01899258452912416</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03572388595564975</v>
+      </c>
+      <c r="F86">
+        <v>0.03424743875129679</v>
+      </c>
+      <c r="G86">
+        <v>0.05088703104008938</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007360647379216978</v>
+        <v>0.01703182946791906</v>
       </c>
       <c r="C87">
-        <v>0.01402929161122312</v>
+        <v>-0.0278994865926018</v>
       </c>
       <c r="D87">
-        <v>-0.03838236266611213</v>
+        <v>-0.01143623843354837</v>
       </c>
       <c r="E87">
-        <v>0.008836443334119488</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07406294569777662</v>
+      </c>
+      <c r="F87">
+        <v>0.04416566282431615</v>
+      </c>
+      <c r="G87">
+        <v>0.0431063515297478</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02590094083068811</v>
+        <v>0.09211985120348415</v>
       </c>
       <c r="C88">
-        <v>0.04645032065267908</v>
+        <v>-0.05869754964712275</v>
       </c>
       <c r="D88">
-        <v>-0.02661578420600974</v>
+        <v>-0.02145745410137043</v>
       </c>
       <c r="E88">
-        <v>0.007297639173964132</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01107909605930276</v>
+      </c>
+      <c r="F88">
+        <v>-0.01320827181181079</v>
+      </c>
+      <c r="G88">
+        <v>0.02122026998200058</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.05402288997183137</v>
+        <v>0.2205785025203051</v>
       </c>
       <c r="C89">
-        <v>0.3378893471543157</v>
+        <v>0.3704636475471872</v>
       </c>
       <c r="D89">
-        <v>0.2875353166256108</v>
+        <v>0.008861159518536324</v>
       </c>
       <c r="E89">
-        <v>-0.001870929347476995</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02324422893760442</v>
+      </c>
+      <c r="F89">
+        <v>-0.03174053696338616</v>
+      </c>
+      <c r="G89">
+        <v>0.03109357619902736</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.04079766060594785</v>
+        <v>0.1886777737793837</v>
       </c>
       <c r="C90">
-        <v>0.2484331703194539</v>
+        <v>0.3361665660923574</v>
       </c>
       <c r="D90">
-        <v>0.2609975730825116</v>
+        <v>0.0119060866742653</v>
       </c>
       <c r="E90">
-        <v>0.001795984229990361</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.007263743678108795</v>
+      </c>
+      <c r="F90">
+        <v>-0.05271373616849823</v>
+      </c>
+      <c r="G90">
+        <v>-0.003331621279523969</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.00226158788251714</v>
+        <v>0.2063766869341851</v>
       </c>
       <c r="C91">
-        <v>0.194803102203249</v>
+        <v>-0.1381759805314847</v>
       </c>
       <c r="D91">
-        <v>-0.2172868168750413</v>
+        <v>0.02486665897887107</v>
       </c>
       <c r="E91">
-        <v>0.0387304295410582</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08660687544232096</v>
+      </c>
+      <c r="F91">
+        <v>-0.1794514251818176</v>
+      </c>
+      <c r="G91">
+        <v>-0.001683459025380029</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.007211122814422273</v>
+        <v>0.2008896171973905</v>
       </c>
       <c r="C92">
-        <v>0.3260982899204923</v>
+        <v>0.2615204882090379</v>
       </c>
       <c r="D92">
-        <v>0.1361191793678578</v>
+        <v>0.04993629878474648</v>
       </c>
       <c r="E92">
-        <v>0.007500346987425657</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.002073859200130475</v>
+      </c>
+      <c r="F92">
+        <v>-0.1185231157490192</v>
+      </c>
+      <c r="G92">
+        <v>0.06445049386301527</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.03775995745947239</v>
+        <v>0.2159864680322241</v>
       </c>
       <c r="C93">
-        <v>0.2866014032666855</v>
+        <v>0.3366593063929534</v>
       </c>
       <c r="D93">
-        <v>0.2648864029757845</v>
+        <v>0.01922883271694563</v>
       </c>
       <c r="E93">
-        <v>0.0239024222004799</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.006237973715784146</v>
+      </c>
+      <c r="F93">
+        <v>-0.03049509201506063</v>
+      </c>
+      <c r="G93">
+        <v>-0.001034397308267786</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.01958726950491358</v>
+        <v>0.2884791559688709</v>
       </c>
       <c r="C94">
-        <v>0.2433423185822795</v>
+        <v>-0.1673619364001624</v>
       </c>
       <c r="D94">
-        <v>-0.2106959083397399</v>
+        <v>0.01385898525758651</v>
       </c>
       <c r="E94">
-        <v>0.08806293207290175</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1119929865111519</v>
+      </c>
+      <c r="F94">
+        <v>-0.4249073038489293</v>
+      </c>
+      <c r="G94">
+        <v>-0.1392780246124365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.006569361067544005</v>
+        <v>0.08919185039607003</v>
       </c>
       <c r="C95">
-        <v>0.04668732507878385</v>
+        <v>-0.07485320192652771</v>
       </c>
       <c r="D95">
-        <v>-0.07226926922293551</v>
+        <v>0.007082462201769169</v>
       </c>
       <c r="E95">
-        <v>0.1232824522998237</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07678757727155151</v>
+      </c>
+      <c r="F95">
+        <v>0.195946070505187</v>
+      </c>
+      <c r="G95">
+        <v>-0.06773829554705445</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.003590625875107562</v>
+        <v>0.2071068069420959</v>
       </c>
       <c r="C98">
-        <v>0.1637726980661439</v>
+        <v>-0.04093357512498801</v>
       </c>
       <c r="D98">
-        <v>-0.1019662704917471</v>
+        <v>0.01673219588013217</v>
       </c>
       <c r="E98">
-        <v>0.07065502023058233</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06066440746207889</v>
+      </c>
+      <c r="F98">
+        <v>0.2558186916767089</v>
+      </c>
+      <c r="G98">
+        <v>-0.03143138994819097</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007008463462004822</v>
+        <v>0.0143822393024806</v>
       </c>
       <c r="C101">
-        <v>0.01833458632108224</v>
+        <v>-0.02066427888114729</v>
       </c>
       <c r="D101">
-        <v>-0.01544913453411155</v>
+        <v>-0.00692405810555111</v>
       </c>
       <c r="E101">
-        <v>-0.004966297687357159</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.004967393324819813</v>
+      </c>
+      <c r="F101">
+        <v>-0.01441508437546184</v>
+      </c>
+      <c r="G101">
+        <v>0.02864162012997339</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01341314594935434</v>
+        <v>0.1225476420535662</v>
       </c>
       <c r="C102">
-        <v>0.1165304400812575</v>
+        <v>-0.08250938385512656</v>
       </c>
       <c r="D102">
-        <v>-0.1124736718230341</v>
+        <v>-0.0005253471709842789</v>
       </c>
       <c r="E102">
-        <v>0.02907900961762051</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04051627223180913</v>
+      </c>
+      <c r="F102">
+        <v>-0.05204824490837225</v>
+      </c>
+      <c r="G102">
+        <v>-0.009843982991838697</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001869995990103756</v>
+        <v>0.004494200948858561</v>
       </c>
       <c r="C103">
-        <v>0.01791636335563257</v>
+        <v>-0.004817369285550362</v>
       </c>
       <c r="D103">
-        <v>-0.02659032531514379</v>
+        <v>-0.0004812075010455184</v>
       </c>
       <c r="E103">
-        <v>-0.01094508227034384</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.00126654021080497</v>
+      </c>
+      <c r="F103">
+        <v>-0.008894478944319013</v>
+      </c>
+      <c r="G103">
+        <v>0.0174906738814219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9856293526220612</v>
+        <v>0.03558572098166555</v>
       </c>
       <c r="C104">
-        <v>-0.09957035017270557</v>
+        <v>0.04319307845032926</v>
       </c>
       <c r="D104">
-        <v>-0.005861828835406412</v>
+        <v>-0.9869264112873767</v>
       </c>
       <c r="E104">
-        <v>-0.02636234502269946</v>
+        <v>0.04270397437399189</v>
+      </c>
+      <c r="F104">
+        <v>-0.04050370772631327</v>
+      </c>
+      <c r="G104">
+        <v>-0.005316488243369924</v>
       </c>
     </row>
   </sheetData>
